--- a/NachDurchlaufplan/excelFiles/0-Wöchentlicher Terminplan1.xlsx
+++ b/NachDurchlaufplan/excelFiles/0-Wöchentlicher Terminplan1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{8979E566-0B26-4EF6-B8EA-C0C036DFF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D0C0E22-F0D8-444A-9F4E-BA3E3DF13000}"/>
+  <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{8979E566-0B26-4EF6-B8EA-C0C036DFF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651A22B2-7960-4259-9C49-12D0C869B79C}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="15615" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t>Weekly objectives</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Hardware and Software Introduction</t>
   </si>
   <si>
     <t>Knowledge requirements.</t>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>3rd Week</t>
-  </si>
-  <si>
-    <t>Structured Programming Basics</t>
   </si>
   <si>
     <t>Web Development and DB Designing</t>
@@ -326,6 +320,15 @@
   </si>
   <si>
     <t>13.Final Project</t>
+  </si>
+  <si>
+    <t>Web Development and Data Handling</t>
+  </si>
+  <si>
+    <t>Programming and Data Structures</t>
+  </si>
+  <si>
+    <t>Hardware, Software, and Coding Introduction</t>
   </si>
 </sst>
 </file>
@@ -1392,78 +1395,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1487,6 +1461,18 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1532,48 +1518,101 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1589,6 +1628,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1598,18 +1661,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1645,54 +1696,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1705,7 +1708,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1725,11 +1732,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -7082,8 +7085,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>166078</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7103,8 +7106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="224118"/>
-          <a:ext cx="16759518" cy="8460441"/>
+          <a:off x="419100" y="231321"/>
+          <a:ext cx="15938287" cy="6218465"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst>
@@ -11277,8 +11280,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>88652</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11298,8 +11301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="228600"/>
-          <a:ext cx="16762880" cy="11782425"/>
+          <a:off x="419100" y="225136"/>
+          <a:ext cx="15794794" cy="7100455"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst>
@@ -15472,8 +15475,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>161059</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15493,8 +15496,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="419100" y="228600"/>
-          <a:ext cx="16762880" cy="11420475"/>
+          <a:off x="419100" y="225136"/>
+          <a:ext cx="15794794" cy="6390409"/>
         </a:xfrm>
         <a:prstGeom prst="round2SameRect">
           <a:avLst>
@@ -23956,6 +23959,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -24222,7 +24229,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -24255,62 +24262,62 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="79" t="s">
-        <v>10</v>
+      <c r="C4" s="42" t="s">
+        <v>9</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -24318,35 +24325,35 @@
     <row r="5" spans="1:30" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="83" t="s">
-        <v>4</v>
+      <c r="O5" s="46" t="s">
+        <v>3</v>
       </c>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
@@ -24354,31 +24361,31 @@
     <row r="6" spans="1:30" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="21"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="90"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="53"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
@@ -24386,31 +24393,31 @@
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="24"/>
       <c r="N7" s="25"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="65"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -24418,31 +24425,31 @@
     <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="65"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -24450,31 +24457,31 @@
     <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="65"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -24482,31 +24489,31 @@
     <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="24"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -24514,31 +24521,31 @@
     <row r="11" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
       <c r="M11" s="24"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="71"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -24578,41 +24585,41 @@
     <row r="13" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="72" t="s">
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="72" t="s">
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="72" t="s">
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="36"/>
       <c r="AD13" s="36"/>
@@ -24620,31 +24627,31 @@
     <row r="14" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="36"/>
       <c r="AD14" s="36"/>
@@ -24652,31 +24659,31 @@
     <row r="15" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="45"/>
-      <c r="AA15" s="46"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="62"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -24684,31 +24691,31 @@
     <row r="16" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="43"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="77"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -24844,31 +24851,31 @@
     <row r="21" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="43"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="76"/>
+      <c r="O21" s="76"/>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="77"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -24876,31 +24883,31 @@
     <row r="22" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="42"/>
-      <c r="Q22" s="43"/>
-      <c r="R22" s="41"/>
-      <c r="S22" s="42"/>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42"/>
-      <c r="V22" s="43"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="43"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="75"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="77"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -24908,31 +24915,31 @@
     <row r="23" spans="1:30" s="29" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-      <c r="AA23" s="49"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="85"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="84"/>
+      <c r="O23" s="84"/>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="85"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="85"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="85"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -24940,31 +24947,31 @@
     <row r="24" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="43"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="43"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="75"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="77"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -25036,31 +25043,31 @@
     <row r="27" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="43"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="76"/>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="76"/>
+      <c r="T27" s="76"/>
+      <c r="U27" s="76"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="77"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -25132,33 +25139,33 @@
     <row r="30" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
-      <c r="Y30" s="57"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="57"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
       <c r="AB30" s="15"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -25166,31 +25173,31 @@
     <row r="31" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
+      <c r="P31" s="89"/>
+      <c r="Q31" s="89"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -25198,31 +25205,31 @@
     <row r="32" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="79"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="79"/>
+      <c r="R32" s="79"/>
+      <c r="S32" s="79"/>
+      <c r="T32" s="79"/>
+      <c r="U32" s="79"/>
+      <c r="V32" s="79"/>
+      <c r="W32" s="79"/>
+      <c r="X32" s="79"/>
+      <c r="Y32" s="79"/>
+      <c r="Z32" s="79"/>
+      <c r="AA32" s="79"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -25230,31 +25237,31 @@
     <row r="33" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
-      <c r="S33" s="53"/>
-      <c r="T33" s="53"/>
-      <c r="U33" s="53"/>
-      <c r="V33" s="53"/>
-      <c r="W33" s="53"/>
-      <c r="X33" s="53"/>
-      <c r="Y33" s="53"/>
-      <c r="Z33" s="53"/>
-      <c r="AA33" s="53"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="81"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="81"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="81"/>
+      <c r="X33" s="81"/>
+      <c r="Y33" s="81"/>
+      <c r="Z33" s="81"/>
+      <c r="AA33" s="81"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -25262,31 +25269,31 @@
     <row r="34" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
-      <c r="V34" s="55"/>
-      <c r="W34" s="55"/>
-      <c r="X34" s="55"/>
-      <c r="Y34" s="55"/>
-      <c r="Z34" s="55"/>
-      <c r="AA34" s="55"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="83"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="83"/>
+      <c r="U34" s="83"/>
+      <c r="V34" s="83"/>
+      <c r="W34" s="83"/>
+      <c r="X34" s="83"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="83"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -25358,28 +25365,29 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="C3:AA3"/>
-    <mergeCell ref="C4:AA4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="O5:AA5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="O6:AA6"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="O7:AA7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="O8:AA8"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="O9:AA9"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="O10:AA10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="O11:AA11"/>
-    <mergeCell ref="C13:G14"/>
-    <mergeCell ref="H13:L14"/>
-    <mergeCell ref="M13:Q14"/>
-    <mergeCell ref="R13:V14"/>
-    <mergeCell ref="W13:AA14"/>
+    <mergeCell ref="M27:Q27"/>
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="W27:AA27"/>
+    <mergeCell ref="W24:AA24"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="R22:V22"/>
+    <mergeCell ref="R23:V23"/>
+    <mergeCell ref="R24:V24"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="W16:AA16"/>
+    <mergeCell ref="W21:AA21"/>
+    <mergeCell ref="W22:AA22"/>
+    <mergeCell ref="W23:AA23"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
     <mergeCell ref="M24:Q24"/>
     <mergeCell ref="C32:AA32"/>
     <mergeCell ref="C33:AA33"/>
@@ -25396,29 +25404,28 @@
     <mergeCell ref="H23:L23"/>
     <mergeCell ref="H24:L24"/>
     <mergeCell ref="H27:L27"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M27:Q27"/>
-    <mergeCell ref="R27:V27"/>
-    <mergeCell ref="W27:AA27"/>
-    <mergeCell ref="W24:AA24"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="R22:V22"/>
-    <mergeCell ref="R23:V23"/>
-    <mergeCell ref="R24:V24"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="W16:AA16"/>
-    <mergeCell ref="W21:AA21"/>
-    <mergeCell ref="W22:AA22"/>
-    <mergeCell ref="W23:AA23"/>
-    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="O10:AA10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O11:AA11"/>
+    <mergeCell ref="C13:G14"/>
+    <mergeCell ref="H13:L14"/>
+    <mergeCell ref="M13:Q14"/>
+    <mergeCell ref="R13:V14"/>
+    <mergeCell ref="W13:AA14"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="O7:AA7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="O8:AA8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="O9:AA9"/>
+    <mergeCell ref="C3:AA3"/>
+    <mergeCell ref="C4:AA4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="O5:AA5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="O6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:C27 H15:H27 R15:R27 W15:W27 M15:M27">
     <cfRule type="expression" dxfId="136" priority="35">
@@ -25577,7 +25584,7 @@
   <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:L10"/>
+      <selection activeCell="C4" sqref="C4:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25634,7 +25641,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -25667,64 +25674,64 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="78" t="s">
-        <v>3</v>
+      <c r="C3" s="41" t="s">
+        <v>94</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="79" t="s">
-        <v>39</v>
+      <c r="C4" s="42" t="s">
+        <v>37</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -25732,41 +25739,41 @@
     <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="72" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="72" t="s">
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="72" t="s">
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="36"/>
@@ -25774,31 +25781,31 @@
     <row r="6" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="36"/>
       <c r="AD6" s="36"/>
@@ -25806,41 +25813,41 @@
     <row r="7" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="111" t="s">
-        <v>42</v>
+      <c r="C7" s="106" t="s">
+        <v>40</v>
       </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="111" t="s">
-        <v>47</v>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="106" t="s">
+        <v>45</v>
       </c>
-      <c r="I7" s="112"/>
-      <c r="J7" s="112"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="108" t="s">
-        <v>51</v>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="107"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="91" t="s">
+        <v>49</v>
       </c>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="111" t="s">
-        <v>68</v>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="106" t="s">
+        <v>66</v>
       </c>
-      <c r="S7" s="112"/>
-      <c r="T7" s="112"/>
-      <c r="U7" s="112"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="111" t="s">
-        <v>71</v>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="106" t="s">
+        <v>69</v>
       </c>
-      <c r="X7" s="112"/>
-      <c r="Y7" s="112"/>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="113"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="108"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -25848,41 +25855,41 @@
     <row r="8" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="108" t="s">
-        <v>43</v>
+      <c r="C8" s="91" t="s">
+        <v>41</v>
       </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="108" t="s">
-        <v>48</v>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="91" t="s">
+        <v>46</v>
       </c>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="108" t="s">
-        <v>52</v>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="91" t="s">
+        <v>50</v>
       </c>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="108" t="s">
-        <v>55</v>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="91" t="s">
+        <v>53</v>
       </c>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="91" t="s">
-        <v>76</v>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="100" t="s">
+        <v>74</v>
       </c>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="93"/>
+      <c r="X8" s="101"/>
+      <c r="Y8" s="101"/>
+      <c r="Z8" s="101"/>
+      <c r="AA8" s="102"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -25890,39 +25897,39 @@
     <row r="9" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="108" t="s">
-        <v>44</v>
+      <c r="C9" s="91" t="s">
+        <v>42</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="108" t="s">
-        <v>66</v>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="91" t="s">
+        <v>64</v>
       </c>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="108" t="s">
-        <v>53</v>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="91" t="s">
+        <v>51</v>
       </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="108" t="s">
-        <v>69</v>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="91" t="s">
+        <v>67</v>
       </c>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="96"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="110"/>
+      <c r="Y9" s="110"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="111"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -25930,39 +25937,39 @@
     <row r="10" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="108" t="s">
-        <v>45</v>
+      <c r="C10" s="91" t="s">
+        <v>43</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="108" t="s">
-        <v>49</v>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="91" t="s">
+        <v>47</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="108" t="s">
-        <v>54</v>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="91" t="s">
+        <v>52</v>
       </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="108" t="s">
-        <v>78</v>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="91" t="s">
+        <v>76</v>
       </c>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="99"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="105"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -25970,41 +25977,41 @@
     <row r="11" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="108" t="s">
-        <v>46</v>
+      <c r="C11" s="91" t="s">
+        <v>44</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="108" t="s">
-        <v>50</v>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="91" t="s">
+        <v>48</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="91" t="s">
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="108" t="s">
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="108" t="s">
-        <v>79</v>
-      </c>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="110"/>
+      <c r="X11" s="92"/>
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="93"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -26012,39 +26019,39 @@
     <row r="12" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="108" t="s">
-        <v>84</v>
+      <c r="C12" s="91" t="s">
+        <v>82</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="108" t="s">
-        <v>67</v>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="91" t="s">
+        <v>65</v>
       </c>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="108" t="s">
-        <v>70</v>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="91" t="s">
+        <v>68</v>
       </c>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="108" t="s">
-        <v>56</v>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="91" t="s">
+        <v>54</v>
       </c>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="110"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="93"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -26116,33 +26123,33 @@
     <row r="15" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -26150,33 +26157,33 @@
     <row r="16" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="100" t="s">
-        <v>74</v>
+      <c r="C16" s="112" t="s">
+        <v>72</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="101"/>
-      <c r="S16" s="101"/>
-      <c r="T16" s="101"/>
-      <c r="U16" s="101"/>
-      <c r="V16" s="101"/>
-      <c r="W16" s="101"/>
-      <c r="X16" s="101"/>
-      <c r="Y16" s="101"/>
-      <c r="Z16" s="101"/>
-      <c r="AA16" s="101"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="113"/>
+      <c r="O16" s="113"/>
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -26184,31 +26191,31 @@
     <row r="17" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
-      <c r="O17" s="103"/>
-      <c r="P17" s="103"/>
-      <c r="Q17" s="103"/>
-      <c r="R17" s="103"/>
-      <c r="S17" s="103"/>
-      <c r="T17" s="103"/>
-      <c r="U17" s="103"/>
-      <c r="V17" s="103"/>
-      <c r="W17" s="103"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="103"/>
-      <c r="Z17" s="103"/>
-      <c r="AA17" s="103"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="115"/>
+      <c r="W17" s="115"/>
+      <c r="X17" s="115"/>
+      <c r="Y17" s="115"/>
+      <c r="Z17" s="115"/>
+      <c r="AA17" s="115"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -26216,31 +26223,31 @@
     <row r="18" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="105"/>
-      <c r="N18" s="105"/>
-      <c r="O18" s="105"/>
-      <c r="P18" s="105"/>
-      <c r="Q18" s="105"/>
-      <c r="R18" s="105"/>
-      <c r="S18" s="105"/>
-      <c r="T18" s="105"/>
-      <c r="U18" s="105"/>
-      <c r="V18" s="105"/>
-      <c r="W18" s="105"/>
-      <c r="X18" s="105"/>
-      <c r="Y18" s="105"/>
-      <c r="Z18" s="105"/>
-      <c r="AA18" s="105"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="117"/>
+      <c r="AA18" s="117"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -26248,31 +26255,31 @@
     <row r="19" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="107"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
-      <c r="S19" s="107"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="107"/>
-      <c r="Y19" s="107"/>
-      <c r="Z19" s="107"/>
-      <c r="AA19" s="107"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -26332,22 +26339,44 @@
       <c r="S22" s="4"/>
     </row>
     <row r="27" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="114"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="116"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="96"/>
     </row>
     <row r="28" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="118"/>
-      <c r="J28" s="118"/>
-      <c r="K28" s="119"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="99"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="38">
+    <mergeCell ref="C18:AA19"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M5:Q6"/>
+    <mergeCell ref="R5:V6"/>
+    <mergeCell ref="W5:AA6"/>
+    <mergeCell ref="W8:AA10"/>
+    <mergeCell ref="C16:AA17"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:L8"/>
     <mergeCell ref="W12:AA12"/>
     <mergeCell ref="G27:K28"/>
     <mergeCell ref="C3:AA3"/>
@@ -26364,28 +26393,6 @@
     <mergeCell ref="R11:V11"/>
     <mergeCell ref="R12:V12"/>
     <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="M5:Q6"/>
-    <mergeCell ref="R5:V6"/>
-    <mergeCell ref="W5:AA6"/>
-    <mergeCell ref="W8:AA10"/>
-    <mergeCell ref="C16:AA17"/>
-    <mergeCell ref="C18:AA19"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="R7 H11:H12 M8:M11 W11:W12 W7">
     <cfRule type="expression" dxfId="105" priority="189">
@@ -26616,7 +26623,7 @@
   <dimension ref="A1:AD23"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:V6"/>
+      <selection activeCell="C4" sqref="C4:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26673,7 +26680,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -26706,62 +26713,64 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
+      <c r="C3" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="79" t="s">
-        <v>39</v>
+      <c r="C4" s="42" t="s">
+        <v>37</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -26769,41 +26778,41 @@
     <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="72" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="72" t="s">
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="72" t="s">
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="36"/>
@@ -26811,31 +26820,31 @@
     <row r="6" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="73"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="36"/>
       <c r="AD6" s="36"/>
@@ -26844,40 +26853,40 @@
       <c r="A7" s="4"/>
       <c r="B7" s="15"/>
       <c r="C7" s="120" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="121"/>
       <c r="E7" s="121"/>
       <c r="F7" s="121"/>
       <c r="G7" s="122"/>
       <c r="H7" s="120" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="121"/>
       <c r="J7" s="121"/>
       <c r="K7" s="121"/>
       <c r="L7" s="122"/>
       <c r="M7" s="120" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N7" s="121"/>
       <c r="O7" s="121"/>
       <c r="P7" s="121"/>
       <c r="Q7" s="122"/>
       <c r="R7" s="120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="S7" s="121"/>
       <c r="T7" s="121"/>
       <c r="U7" s="121"/>
       <c r="V7" s="122"/>
-      <c r="W7" s="108" t="s">
-        <v>80</v>
+      <c r="W7" s="91" t="s">
+        <v>78</v>
       </c>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="110"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="93"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -26885,33 +26894,33 @@
     <row r="8" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="97"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="97"/>
-      <c r="S8" s="98"/>
-      <c r="T8" s="98"/>
-      <c r="U8" s="98"/>
-      <c r="V8" s="99"/>
-      <c r="W8" s="108" t="s">
-        <v>92</v>
+      <c r="C8" s="103"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="103"/>
+      <c r="S8" s="104"/>
+      <c r="T8" s="104"/>
+      <c r="U8" s="104"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="91" t="s">
+        <v>90</v>
       </c>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="110"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="93"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -26919,41 +26928,41 @@
     <row r="9" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="108" t="s">
-        <v>58</v>
+      <c r="C9" s="91" t="s">
+        <v>56</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="108" t="s">
-        <v>72</v>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="91" t="s">
+        <v>70</v>
       </c>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="108" t="s">
-        <v>62</v>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="91" t="s">
+        <v>60</v>
       </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="108" t="s">
-        <v>65</v>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="91" t="s">
+        <v>63</v>
       </c>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="91" t="s">
-        <v>93</v>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="100" t="s">
+        <v>91</v>
       </c>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="93"/>
+      <c r="X9" s="101"/>
+      <c r="Y9" s="101"/>
+      <c r="Z9" s="101"/>
+      <c r="AA9" s="102"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -26961,39 +26970,39 @@
     <row r="10" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="108" t="s">
-        <v>72</v>
+      <c r="C10" s="91" t="s">
+        <v>70</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="108" t="s">
-        <v>85</v>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="91" t="s">
+        <v>83</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="108" t="s">
-        <v>61</v>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="91" t="s">
+        <v>59</v>
       </c>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="108" t="s">
-        <v>64</v>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="91" t="s">
+        <v>62</v>
       </c>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="110"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="96"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="109"/>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="110"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="111"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -27001,39 +27010,39 @@
     <row r="11" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="108" t="s">
-        <v>57</v>
+      <c r="C11" s="91" t="s">
+        <v>55</v>
       </c>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="108" t="s">
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="100" t="s">
         <v>86</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="91" t="s">
-        <v>88</v>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="102"/>
+      <c r="R11" s="91" t="s">
+        <v>87</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="108" t="s">
-        <v>89</v>
-      </c>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="94"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="96"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="109"/>
+      <c r="X11" s="110"/>
+      <c r="Y11" s="110"/>
+      <c r="Z11" s="110"/>
+      <c r="AA11" s="111"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -27041,37 +27050,37 @@
     <row r="12" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="108" t="s">
-        <v>82</v>
+      <c r="C12" s="91" t="s">
+        <v>80</v>
       </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="108" t="s">
-        <v>73</v>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="91" t="s">
+        <v>71</v>
       </c>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="108" t="s">
-        <v>90</v>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="105"/>
+      <c r="R12" s="91" t="s">
+        <v>88</v>
       </c>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="94"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="96"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="109"/>
+      <c r="X12" s="110"/>
+      <c r="Y12" s="110"/>
+      <c r="Z12" s="110"/>
+      <c r="AA12" s="111"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -27079,39 +27088,39 @@
     <row r="13" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="108" t="s">
+      <c r="C13" s="91" t="s">
         <v>81</v>
       </c>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="108" t="s">
-        <v>91</v>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="91" t="s">
+        <v>85</v>
       </c>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="99"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="93"/>
+      <c r="R13" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="103"/>
+      <c r="X13" s="104"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="104"/>
+      <c r="AA13" s="105"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -27183,33 +27192,33 @@
     <row r="16" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -27217,31 +27226,31 @@
     <row r="17" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="59"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="59"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="59"/>
-      <c r="W17" s="59"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -27249,31 +27258,31 @@
     <row r="18" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="51"/>
-      <c r="AA18" s="51"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -27281,31 +27290,31 @@
     <row r="19" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="81"/>
+      <c r="X19" s="81"/>
+      <c r="Y19" s="81"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="81"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -27313,31 +27322,31 @@
     <row r="20" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="55"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="55"/>
-      <c r="AA20" s="55"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="83"/>
+      <c r="P20" s="83"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="83"/>
+      <c r="X20" s="83"/>
+      <c r="Y20" s="83"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -27409,30 +27418,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C17:AA17"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="C20:AA20"/>
-    <mergeCell ref="C16:AA16"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C18:AA18"/>
-    <mergeCell ref="C19:AA19"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:L6"/>
-    <mergeCell ref="M5:Q6"/>
-    <mergeCell ref="R5:V6"/>
-    <mergeCell ref="W5:AA6"/>
     <mergeCell ref="C3:AA3"/>
     <mergeCell ref="C4:AA4"/>
     <mergeCell ref="W9:AA13"/>
@@ -27447,6 +27432,30 @@
     <mergeCell ref="M11:Q12"/>
     <mergeCell ref="R7:V8"/>
     <mergeCell ref="R11:V11"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:L6"/>
+    <mergeCell ref="M5:Q6"/>
+    <mergeCell ref="R5:V6"/>
+    <mergeCell ref="W5:AA6"/>
+    <mergeCell ref="C20:AA20"/>
+    <mergeCell ref="C16:AA16"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C18:AA18"/>
+    <mergeCell ref="C19:AA19"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C17:AA17"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="R13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="C7 H7 M7 R7 R9:R13 M13 M9:M11 H9:H13 C9:C13">
     <cfRule type="expression" dxfId="58" priority="235">
@@ -27574,7 +27583,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:V10"/>
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27631,7 +27640,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -27664,64 +27673,64 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="78" t="s">
-        <v>12</v>
+      <c r="C3" s="41" t="s">
+        <v>92</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="79" t="s">
-        <v>11</v>
+      <c r="C4" s="42" t="s">
+        <v>10</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -27729,41 +27738,41 @@
     <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="72" t="s">
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="72" t="s">
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="72" t="s">
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="74"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="71"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="36"/>
@@ -27771,31 +27780,31 @@
     <row r="6" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="77"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="73"/>
+      <c r="AA6" s="74"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="36"/>
       <c r="AD6" s="36"/>
@@ -27803,31 +27812,31 @@
     <row r="7" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="111"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="110"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="110"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="103"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="92"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="93"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -27835,31 +27844,31 @@
     <row r="8" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="110"/>
-      <c r="W8" s="108"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="110"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="93"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="93"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -27867,31 +27876,31 @@
     <row r="9" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="108"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="108"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="110"/>
-      <c r="W9" s="108"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="110"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="93"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="93"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -27899,31 +27908,31 @@
     <row r="10" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="99"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="99"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="93"/>
+      <c r="R10" s="103"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="103"/>
+      <c r="X10" s="104"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="104"/>
+      <c r="AA10" s="105"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -27931,31 +27940,31 @@
     <row r="11" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="99"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="99"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="103"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="103"/>
+      <c r="X11" s="104"/>
+      <c r="Y11" s="104"/>
+      <c r="Z11" s="104"/>
+      <c r="AA11" s="105"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -27963,31 +27972,31 @@
     <row r="12" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="108"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="110"/>
-      <c r="W12" s="108"/>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="109"/>
-      <c r="Z12" s="109"/>
-      <c r="AA12" s="110"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="91"/>
+      <c r="S12" s="92"/>
+      <c r="T12" s="92"/>
+      <c r="U12" s="92"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="92"/>
+      <c r="Y12" s="92"/>
+      <c r="Z12" s="92"/>
+      <c r="AA12" s="93"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -28059,33 +28068,33 @@
     <row r="15" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -28093,31 +28102,31 @@
     <row r="16" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="59"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="59"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="59"/>
-      <c r="Z16" s="59"/>
-      <c r="AA16" s="59"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -28125,31 +28134,31 @@
     <row r="17" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -28157,31 +28166,31 @@
     <row r="18" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="53"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="53"/>
-      <c r="S18" s="53"/>
-      <c r="T18" s="53"/>
-      <c r="U18" s="53"/>
-      <c r="V18" s="53"/>
-      <c r="W18" s="53"/>
-      <c r="X18" s="53"/>
-      <c r="Y18" s="53"/>
-      <c r="Z18" s="53"/>
-      <c r="AA18" s="53"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="81"/>
+      <c r="Y18" s="81"/>
+      <c r="Z18" s="81"/>
+      <c r="AA18" s="81"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -28189,31 +28198,31 @@
     <row r="19" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="55"/>
-      <c r="X19" s="55"/>
-      <c r="Y19" s="55"/>
-      <c r="Z19" s="55"/>
-      <c r="AA19" s="55"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="83"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -28285,13 +28294,25 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="42">
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="W12:AA12"/>
+    <mergeCell ref="H5:L6"/>
+    <mergeCell ref="M5:Q6"/>
+    <mergeCell ref="R5:V6"/>
+    <mergeCell ref="W5:AA6"/>
+    <mergeCell ref="C19:AA19"/>
+    <mergeCell ref="C15:AA15"/>
+    <mergeCell ref="C16:AA16"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="C18:AA18"/>
+    <mergeCell ref="C17:AA17"/>
+    <mergeCell ref="C12:G12"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="C3:AA3"/>
     <mergeCell ref="C4:AA4"/>
@@ -28308,25 +28329,13 @@
     <mergeCell ref="M8:Q8"/>
     <mergeCell ref="M9:Q9"/>
     <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:L6"/>
-    <mergeCell ref="M5:Q6"/>
-    <mergeCell ref="R5:V6"/>
-    <mergeCell ref="W5:AA6"/>
-    <mergeCell ref="C19:AA19"/>
-    <mergeCell ref="C15:AA15"/>
-    <mergeCell ref="C16:AA16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="C18:AA18"/>
-    <mergeCell ref="C17:AA17"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="W12:AA12"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="W10:AA10"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="R10:V10"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Stay on track with your goals – personal, work related, to-do items, &amp; deadlines with this weekly planner._x000a__x000a_Calendar highlights today's date through conditional formatting." sqref="A1" xr:uid="{B1280F90-5521-4452-BFC0-9E7A77206935}"/>
@@ -28403,7 +28412,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" s="11" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7"/>
@@ -28436,64 +28445,64 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="78" t="s">
-        <v>13</v>
+      <c r="C3" s="41" t="s">
+        <v>11</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="79" t="s">
-        <v>40</v>
+      <c r="C4" s="42" t="s">
+        <v>38</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -28501,35 +28510,35 @@
     <row r="5" spans="1:30" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="82"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="83" t="s">
-        <v>4</v>
+      <c r="O5" s="46" t="s">
+        <v>3</v>
       </c>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
+      <c r="P5" s="47"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="47"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="47"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
@@ -28537,31 +28546,31 @@
     <row r="6" spans="1:30" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="87"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="50"/>
       <c r="M6" s="21"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="89"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="89"/>
-      <c r="W6" s="89"/>
-      <c r="X6" s="89"/>
-      <c r="Y6" s="89"/>
-      <c r="Z6" s="89"/>
-      <c r="AA6" s="90"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="53"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
@@ -28569,33 +28578,33 @@
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="60" t="s">
-        <v>38</v>
+      <c r="C7" s="54" t="s">
+        <v>36</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="56"/>
       <c r="M7" s="24"/>
       <c r="N7" s="25"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="65"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="59"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -28603,33 +28612,33 @@
     <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="60" t="s">
-        <v>35</v>
+      <c r="C8" s="54" t="s">
+        <v>33</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="56"/>
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="65"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="59"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -28637,33 +28646,33 @@
     <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="60" t="s">
-        <v>36</v>
+      <c r="C9" s="54" t="s">
+        <v>34</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="62"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="56"/>
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="65"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="58"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="59"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -28671,33 +28680,33 @@
     <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="60" t="s">
-        <v>37</v>
+      <c r="C10" s="54" t="s">
+        <v>35</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="62"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="56"/>
       <c r="M10" s="24"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="65"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -28705,31 +28714,31 @@
     <row r="11" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="65"/>
       <c r="M11" s="24"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="71"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="68"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -28769,41 +28778,41 @@
     <row r="13" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="72" t="s">
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="72" t="s">
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="72" t="s">
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="72" t="s">
-        <v>9</v>
-      </c>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="36"/>
       <c r="AD13" s="36"/>
@@ -28811,31 +28820,31 @@
     <row r="14" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="75"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="36"/>
       <c r="AD14" s="36"/>
@@ -28843,41 +28852,41 @@
     <row r="15" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="45" t="s">
-        <v>14</v>
+      <c r="C15" s="61" t="s">
+        <v>12</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="125" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="127"/>
-      <c r="M15" s="125" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="46"/>
-      <c r="W15" s="41" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="43"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="127"/>
+      <c r="L15" s="128"/>
+      <c r="M15" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="127"/>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="128"/>
+      <c r="R15" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="77"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -28885,37 +28894,37 @@
     <row r="16" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="42" t="s">
-        <v>15</v>
+      <c r="C16" s="76" t="s">
+        <v>13</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="128"/>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="124"/>
-      <c r="R16" s="41" t="s">
-        <v>26</v>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="98"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="123"/>
+      <c r="N16" s="124"/>
+      <c r="O16" s="124"/>
+      <c r="P16" s="124"/>
+      <c r="Q16" s="125"/>
+      <c r="R16" s="75" t="s">
+        <v>24</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="114" t="s">
-        <v>27</v>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="94" t="s">
+        <v>25</v>
       </c>
-      <c r="X16" s="115"/>
-      <c r="Y16" s="115"/>
-      <c r="Z16" s="115"/>
-      <c r="AA16" s="116"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="96"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -28923,37 +28932,37 @@
     <row r="17" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="42" t="s">
-        <v>16</v>
+      <c r="C17" s="76" t="s">
+        <v>14</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="41" t="s">
-        <v>20</v>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="75" t="s">
+        <v>18</v>
       </c>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="119"/>
-      <c r="R17" s="114" t="s">
-        <v>29</v>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="99"/>
+      <c r="R17" s="94" t="s">
+        <v>27</v>
       </c>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="116"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="129"/>
-      <c r="Y17" s="129"/>
-      <c r="Z17" s="129"/>
-      <c r="AA17" s="124"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="123"/>
+      <c r="X17" s="124"/>
+      <c r="Y17" s="124"/>
+      <c r="Z17" s="124"/>
+      <c r="AA17" s="125"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -28961,37 +28970,37 @@
     <row r="18" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="42" t="s">
-        <v>17</v>
+      <c r="C18" s="76" t="s">
+        <v>15</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="41" t="s">
-        <v>21</v>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="75" t="s">
+        <v>19</v>
       </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="41" t="s">
-        <v>25</v>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="75" t="s">
+        <v>23</v>
       </c>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="119"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="119"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="97"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="99"/>
+      <c r="W18" s="97"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="99"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -28999,31 +29008,31 @@
     <row r="19" spans="1:30" s="29" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="49"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="49"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="85"/>
+      <c r="R19" s="90"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="85"/>
+      <c r="W19" s="90"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="85"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -29031,41 +29040,41 @@
     <row r="20" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="42" t="s">
-        <v>19</v>
+      <c r="C20" s="76" t="s">
+        <v>17</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="114" t="s">
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="94" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="114" t="s">
-        <v>24</v>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="75" t="s">
+        <v>28</v>
       </c>
-      <c r="N20" s="115"/>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="41" t="s">
-        <v>30</v>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="94" t="s">
+        <v>29</v>
       </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="X20" s="115"/>
-      <c r="Y20" s="115"/>
-      <c r="Z20" s="115"/>
-      <c r="AA20" s="116"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="96"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -29073,35 +29082,35 @@
     <row r="21" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="42" t="s">
-        <v>18</v>
+      <c r="C21" s="76" t="s">
+        <v>16</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="118"/>
-      <c r="P21" s="118"/>
-      <c r="Q21" s="119"/>
-      <c r="R21" s="123" t="s">
-        <v>28</v>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="99"/>
+      <c r="R21" s="129" t="s">
+        <v>26</v>
       </c>
-      <c r="S21" s="123"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="124"/>
-      <c r="W21" s="117"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="119"/>
+      <c r="S21" s="129"/>
+      <c r="T21" s="129"/>
+      <c r="U21" s="129"/>
+      <c r="V21" s="125"/>
+      <c r="W21" s="97"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="99"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -29173,33 +29182,33 @@
     <row r="24" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -29207,31 +29216,31 @@
     <row r="25" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="89"/>
+      <c r="N25" s="89"/>
+      <c r="O25" s="89"/>
+      <c r="P25" s="89"/>
+      <c r="Q25" s="89"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -29239,31 +29248,31 @@
     <row r="26" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="79"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -29271,31 +29280,31 @@
     <row r="27" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="53"/>
-      <c r="R27" s="53"/>
-      <c r="S27" s="53"/>
-      <c r="T27" s="53"/>
-      <c r="U27" s="53"/>
-      <c r="V27" s="53"/>
-      <c r="W27" s="53"/>
-      <c r="X27" s="53"/>
-      <c r="Y27" s="53"/>
-      <c r="Z27" s="53"/>
-      <c r="AA27" s="53"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="81"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="81"/>
+      <c r="X27" s="81"/>
+      <c r="Y27" s="81"/>
+      <c r="Z27" s="81"/>
+      <c r="AA27" s="81"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -29303,31 +29312,31 @@
     <row r="28" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="83"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -29399,11 +29408,37 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="52">
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="M20:Q21"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="W16:AA18"/>
-    <mergeCell ref="R17:V18"/>
+    <mergeCell ref="C3:AA3"/>
+    <mergeCell ref="C4:AA4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="O5:AA5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="O6:AA6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="O7:AA7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="O8:AA8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="O9:AA9"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="O10:AA10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O11:AA11"/>
+    <mergeCell ref="C13:G14"/>
+    <mergeCell ref="H13:L14"/>
+    <mergeCell ref="M13:Q14"/>
+    <mergeCell ref="R13:V14"/>
+    <mergeCell ref="W13:AA14"/>
+    <mergeCell ref="C26:AA26"/>
+    <mergeCell ref="C27:AA27"/>
+    <mergeCell ref="C28:AA28"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="C24:AA24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="W20:AA21"/>
+    <mergeCell ref="H20:L21"/>
     <mergeCell ref="R15:V15"/>
     <mergeCell ref="C25:AA25"/>
     <mergeCell ref="C19:G19"/>
@@ -29420,37 +29455,11 @@
     <mergeCell ref="M15:Q17"/>
     <mergeCell ref="W15:AA15"/>
     <mergeCell ref="H15:L16"/>
-    <mergeCell ref="C26:AA26"/>
-    <mergeCell ref="C27:AA27"/>
-    <mergeCell ref="C28:AA28"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="C24:AA24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="W20:AA21"/>
-    <mergeCell ref="H20:L21"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="O10:AA10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="O11:AA11"/>
-    <mergeCell ref="C13:G14"/>
-    <mergeCell ref="H13:L14"/>
-    <mergeCell ref="M13:Q14"/>
-    <mergeCell ref="R13:V14"/>
-    <mergeCell ref="W13:AA14"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="O7:AA7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="O8:AA8"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="O9:AA9"/>
-    <mergeCell ref="C3:AA3"/>
-    <mergeCell ref="C4:AA4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="O5:AA5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="O6:AA6"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="M20:Q21"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="W16:AA18"/>
+    <mergeCell ref="R17:V18"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:C21 W19:W21 W15:W16 R19:R20 R16:R17 M15 M18:M20 H15 H17:H20">
     <cfRule type="expression" dxfId="34" priority="51">
@@ -29620,35 +29629,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -29960,27 +29940,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A1AD99-D1C5-4F0A-B68D-76D2F78DDEA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5412D88-CD3F-4013-A8F4-3757FAAA99F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0CBBCA-45B5-47CA-BE51-AD0EBD1121C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30001,6 +29990,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5412D88-CD3F-4013-A8F4-3757FAAA99F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A1AD99-D1C5-4F0A-B68D-76D2F78DDEA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/NachDurchlaufplan/excelFiles/0-Wöchentlicher Terminplan1.xlsx
+++ b/NachDurchlaufplan/excelFiles/0-Wöchentlicher Terminplan1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="292" documentId="13_ncr:1_{8979E566-0B26-4EF6-B8EA-C0C036DFF2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651A22B2-7960-4259-9C49-12D0C869B79C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8A1085-B961-4BC8-A68B-FBD522B106A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
   <si>
     <t>Weekly objectives</t>
   </si>
@@ -329,6 +329,33 @@
   </si>
   <si>
     <t>Hardware, Software, and Coding Introduction</t>
+  </si>
+  <si>
+    <t>Personal Profile</t>
+  </si>
+  <si>
+    <t>Simple Product Showcase</t>
+  </si>
+  <si>
+    <t>HTLM &amp; CSS</t>
+  </si>
+  <si>
+    <t>HTML &amp; Bootstrap</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>PHP &amp; SQL</t>
+  </si>
+  <si>
+    <t>INDIVIDUAL CRUD</t>
+  </si>
+  <si>
+    <t>INTERACTIVE CRUD</t>
   </si>
 </sst>
 </file>
@@ -1395,6 +1422,146 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1440,143 +1607,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1590,6 +1633,70 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1616,86 +1723,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1708,11 +1735,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1732,7 +1755,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -15568,8 +15595,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="730092" y="5193282"/>
-          <a:ext cx="15185317" cy="237700"/>
+          <a:off x="736277" y="5183386"/>
+          <a:ext cx="15320152" cy="237700"/>
           <a:chOff x="1120906" y="8550700"/>
           <a:chExt cx="10423394" cy="262675"/>
         </a:xfrm>
@@ -23959,10 +23986,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -24262,62 +24285,62 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -24325,35 +24348,35 @@
     <row r="5" spans="1:30" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
@@ -24361,31 +24384,31 @@
     <row r="6" spans="1:30" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="21"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="53"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="90"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
@@ -24393,31 +24416,31 @@
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="24"/>
       <c r="N7" s="25"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="59"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="65"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -24425,31 +24448,31 @@
     <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="59"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="65"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -24457,31 +24480,31 @@
     <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="65"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -24489,31 +24512,31 @@
     <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="24"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -24521,31 +24544,31 @@
     <row r="11" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="24"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="68"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="71"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -24585,41 +24608,41 @@
     <row r="13" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="69" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="69" t="s">
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="69" t="s">
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="69" t="s">
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="36"/>
       <c r="AD13" s="36"/>
@@ -24627,31 +24650,31 @@
     <row r="14" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="36"/>
       <c r="AD14" s="36"/>
@@ -24659,31 +24682,31 @@
     <row r="15" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="62"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="46"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -24691,31 +24714,31 @@
     <row r="16" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="77"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="43"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -24851,31 +24874,31 @@
     <row r="21" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="76"/>
-      <c r="K21" s="76"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="76"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="77"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="43"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="43"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -24883,31 +24906,31 @@
     <row r="22" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="15"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="76"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="76"/>
-      <c r="O22" s="76"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="75"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="77"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="43"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="42"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="42"/>
+      <c r="AA22" s="43"/>
       <c r="AB22" s="15"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -24915,31 +24938,31 @@
     <row r="23" spans="1:30" s="29" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="15"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="85"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="84"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="84"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="84"/>
-      <c r="AA23" s="85"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="48"/>
+      <c r="Y23" s="48"/>
+      <c r="Z23" s="48"/>
+      <c r="AA23" s="49"/>
       <c r="AB23" s="15"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -24947,31 +24970,31 @@
     <row r="24" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="15"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="75"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="77"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="43"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="42"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="42"/>
+      <c r="AA24" s="43"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -25043,31 +25066,31 @@
     <row r="27" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="15"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="76"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="76"/>
-      <c r="U27" s="76"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="75"/>
-      <c r="X27" s="76"/>
-      <c r="Y27" s="76"/>
-      <c r="Z27" s="76"/>
-      <c r="AA27" s="77"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="43"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="42"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="43"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -25139,33 +25162,33 @@
     <row r="30" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="87"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="87"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="57"/>
       <c r="AB30" s="15"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -25173,31 +25196,31 @@
     <row r="31" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="89"/>
-      <c r="O31" s="89"/>
-      <c r="P31" s="89"/>
-      <c r="Q31" s="89"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -25205,31 +25228,31 @@
     <row r="32" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="79"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="79"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="79"/>
-      <c r="R32" s="79"/>
-      <c r="S32" s="79"/>
-      <c r="T32" s="79"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -25237,31 +25260,31 @@
     <row r="33" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="81"/>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="81"/>
-      <c r="P33" s="81"/>
-      <c r="Q33" s="81"/>
-      <c r="R33" s="81"/>
-      <c r="S33" s="81"/>
-      <c r="T33" s="81"/>
-      <c r="U33" s="81"/>
-      <c r="V33" s="81"/>
-      <c r="W33" s="81"/>
-      <c r="X33" s="81"/>
-      <c r="Y33" s="81"/>
-      <c r="Z33" s="81"/>
-      <c r="AA33" s="81"/>
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
+      <c r="Q33" s="53"/>
+      <c r="R33" s="53"/>
+      <c r="S33" s="53"/>
+      <c r="T33" s="53"/>
+      <c r="U33" s="53"/>
+      <c r="V33" s="53"/>
+      <c r="W33" s="53"/>
+      <c r="X33" s="53"/>
+      <c r="Y33" s="53"/>
+      <c r="Z33" s="53"/>
+      <c r="AA33" s="53"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -25269,31 +25292,31 @@
     <row r="34" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="83"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="83"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="83"/>
-      <c r="Y34" s="83"/>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="83"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
+      <c r="V34" s="55"/>
+      <c r="W34" s="55"/>
+      <c r="X34" s="55"/>
+      <c r="Y34" s="55"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="55"/>
       <c r="AB34" s="15"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -25365,6 +25388,51 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="61">
+    <mergeCell ref="C3:AA3"/>
+    <mergeCell ref="C4:AA4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="O5:AA5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="O6:AA6"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="O7:AA7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="O8:AA8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="O9:AA9"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="O10:AA10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O11:AA11"/>
+    <mergeCell ref="C13:G14"/>
+    <mergeCell ref="H13:L14"/>
+    <mergeCell ref="M13:Q14"/>
+    <mergeCell ref="R13:V14"/>
+    <mergeCell ref="W13:AA14"/>
+    <mergeCell ref="M24:Q24"/>
+    <mergeCell ref="C32:AA32"/>
+    <mergeCell ref="C33:AA33"/>
+    <mergeCell ref="C34:AA34"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C30:AA30"/>
+    <mergeCell ref="C31:AA31"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="M16:Q16"/>
+    <mergeCell ref="M21:Q21"/>
+    <mergeCell ref="M22:Q22"/>
+    <mergeCell ref="M23:Q23"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="H22:L22"/>
     <mergeCell ref="M27:Q27"/>
     <mergeCell ref="R27:V27"/>
     <mergeCell ref="W27:AA27"/>
@@ -25381,51 +25449,6 @@
     <mergeCell ref="W22:AA22"/>
     <mergeCell ref="W23:AA23"/>
     <mergeCell ref="M15:Q15"/>
-    <mergeCell ref="M16:Q16"/>
-    <mergeCell ref="M21:Q21"/>
-    <mergeCell ref="M22:Q22"/>
-    <mergeCell ref="M23:Q23"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M24:Q24"/>
-    <mergeCell ref="C32:AA32"/>
-    <mergeCell ref="C33:AA33"/>
-    <mergeCell ref="C34:AA34"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C30:AA30"/>
-    <mergeCell ref="C31:AA31"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="O10:AA10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="O11:AA11"/>
-    <mergeCell ref="C13:G14"/>
-    <mergeCell ref="H13:L14"/>
-    <mergeCell ref="M13:Q14"/>
-    <mergeCell ref="R13:V14"/>
-    <mergeCell ref="W13:AA14"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="O7:AA7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="O8:AA8"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="O9:AA9"/>
-    <mergeCell ref="C3:AA3"/>
-    <mergeCell ref="C4:AA4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="O5:AA5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="O6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:C27 H15:H27 R15:R27 W15:W27 M15:M27">
     <cfRule type="expression" dxfId="136" priority="35">
@@ -25674,64 +25697,64 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -25739,41 +25762,41 @@
     <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="69" t="s">
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="69" t="s">
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="69" t="s">
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="36"/>
@@ -25781,31 +25804,31 @@
     <row r="6" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="36"/>
       <c r="AD6" s="36"/>
@@ -25813,41 +25836,41 @@
     <row r="7" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="106" t="s">
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="107"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="91" t="s">
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="106" t="s">
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="106" t="s">
+      <c r="S7" s="99"/>
+      <c r="T7" s="99"/>
+      <c r="U7" s="99"/>
+      <c r="V7" s="100"/>
+      <c r="W7" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="108"/>
+      <c r="X7" s="99"/>
+      <c r="Y7" s="99"/>
+      <c r="Z7" s="99"/>
+      <c r="AA7" s="100"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -25855,41 +25878,41 @@
     <row r="8" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="91" t="s">
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="91" t="s">
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="91" t="s">
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="100" t="s">
+      <c r="S8" s="96"/>
+      <c r="T8" s="96"/>
+      <c r="U8" s="96"/>
+      <c r="V8" s="97"/>
+      <c r="W8" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="X8" s="101"/>
-      <c r="Y8" s="101"/>
-      <c r="Z8" s="101"/>
-      <c r="AA8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="103"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -25897,39 +25920,39 @@
     <row r="9" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="91" t="s">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="91" t="s">
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="91" t="s">
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="95" t="s">
         <v>67</v>
       </c>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="110"/>
-      <c r="Y9" s="110"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="111"/>
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="106"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -25937,39 +25960,39 @@
     <row r="10" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="91" t="s">
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="91" t="s">
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="91" t="s">
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="105"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="108"/>
+      <c r="Y10" s="108"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="109"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -25977,41 +26000,41 @@
     <row r="11" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="91" t="s">
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="100" t="s">
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="91" t="s">
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="91" t="s">
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="93"/>
+      <c r="X11" s="96"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="96"/>
+      <c r="AA11" s="97"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -26019,39 +26042,39 @@
     <row r="12" spans="1:30" s="29" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="91" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="91" t="s">
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="91" t="s">
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="93"/>
+      <c r="X12" s="96"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="96"/>
+      <c r="AA12" s="97"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -26123,33 +26146,33 @@
     <row r="15" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -26157,33 +26180,33 @@
     <row r="16" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="112" t="s">
+      <c r="C16" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="113"/>
-      <c r="P16" s="113"/>
-      <c r="Q16" s="113"/>
-      <c r="R16" s="113"/>
-      <c r="S16" s="113"/>
-      <c r="T16" s="113"/>
-      <c r="U16" s="113"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="113"/>
-      <c r="X16" s="113"/>
-      <c r="Y16" s="113"/>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="113"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
+      <c r="U16" s="111"/>
+      <c r="V16" s="111"/>
+      <c r="W16" s="111"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="111"/>
+      <c r="AA16" s="111"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -26191,31 +26214,31 @@
     <row r="17" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="115"/>
-      <c r="AA17" s="115"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="113"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -26223,31 +26246,31 @@
     <row r="18" spans="1:30" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="117"/>
-      <c r="R18" s="117"/>
-      <c r="S18" s="117"/>
-      <c r="T18" s="117"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="117"/>
-      <c r="W18" s="117"/>
-      <c r="X18" s="117"/>
-      <c r="Y18" s="117"/>
-      <c r="Z18" s="117"/>
-      <c r="AA18" s="117"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="92"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="92"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -26255,31 +26278,31 @@
     <row r="19" spans="1:30" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-      <c r="S19" s="119"/>
-      <c r="T19" s="119"/>
-      <c r="U19" s="119"/>
-      <c r="V19" s="119"/>
-      <c r="W19" s="119"/>
-      <c r="X19" s="119"/>
-      <c r="Y19" s="119"/>
-      <c r="Z19" s="119"/>
-      <c r="AA19" s="119"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="94"/>
+      <c r="L19" s="94"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="94"/>
+      <c r="T19" s="94"/>
+      <c r="U19" s="94"/>
+      <c r="V19" s="94"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -26339,30 +26362,37 @@
       <c r="S22" s="4"/>
     </row>
     <row r="27" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="94"/>
-      <c r="H27" s="95"/>
-      <c r="I27" s="95"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="96"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="116"/>
     </row>
     <row r="28" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="97"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="99"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="119"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="38">
-    <mergeCell ref="C18:AA19"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="G27:K28"/>
+    <mergeCell ref="C3:AA3"/>
+    <mergeCell ref="C15:AA15"/>
+    <mergeCell ref="C4:AA4"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:L6"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M11:Q12"/>
+    <mergeCell ref="R11:V11"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="W11:AA11"/>
     <mergeCell ref="M5:Q6"/>
     <mergeCell ref="R5:V6"/>
     <mergeCell ref="W5:AA6"/>
@@ -26378,21 +26408,14 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="H8:L8"/>
     <mergeCell ref="W12:AA12"/>
-    <mergeCell ref="G27:K28"/>
-    <mergeCell ref="C3:AA3"/>
-    <mergeCell ref="C15:AA15"/>
-    <mergeCell ref="C4:AA4"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:L6"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M11:Q12"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="W11:AA11"/>
+    <mergeCell ref="C18:AA19"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="R7:V7"/>
+    <mergeCell ref="R8:V8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H7:L7"/>
   </mergeCells>
   <conditionalFormatting sqref="R7 H11:H12 M8:M11 W11:W12 W7">
     <cfRule type="expression" dxfId="105" priority="189">
@@ -26713,64 +26736,64 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="78" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -26778,41 +26801,41 @@
     <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="69" t="s">
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="69" t="s">
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="69" t="s">
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="73"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="36"/>
@@ -26820,31 +26843,31 @@
     <row r="6" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="36"/>
       <c r="AD6" s="36"/>
@@ -26880,13 +26903,13 @@
       <c r="T7" s="121"/>
       <c r="U7" s="121"/>
       <c r="V7" s="122"/>
-      <c r="W7" s="91" t="s">
+      <c r="W7" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
+      <c r="X7" s="96"/>
+      <c r="Y7" s="96"/>
+      <c r="Z7" s="96"/>
+      <c r="AA7" s="97"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -26894,33 +26917,33 @@
     <row r="8" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
-      <c r="P8" s="104"/>
-      <c r="Q8" s="105"/>
-      <c r="R8" s="103"/>
-      <c r="S8" s="104"/>
-      <c r="T8" s="104"/>
-      <c r="U8" s="104"/>
-      <c r="V8" s="105"/>
-      <c r="W8" s="91" t="s">
+      <c r="C8" s="107"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="93"/>
+      <c r="X8" s="96"/>
+      <c r="Y8" s="96"/>
+      <c r="Z8" s="96"/>
+      <c r="AA8" s="97"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -26928,41 +26951,41 @@
     <row r="9" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="91" t="s">
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="91" t="s">
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="91" t="s">
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="100" t="s">
+      <c r="S9" s="96"/>
+      <c r="T9" s="96"/>
+      <c r="U9" s="96"/>
+      <c r="V9" s="97"/>
+      <c r="W9" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="X9" s="101"/>
-      <c r="Y9" s="101"/>
-      <c r="Z9" s="101"/>
-      <c r="AA9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="103"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -26970,39 +26993,39 @@
     <row r="10" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="91" t="s">
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="95" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="91" t="s">
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="91" t="s">
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="109"/>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="110"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="111"/>
+      <c r="S10" s="96"/>
+      <c r="T10" s="96"/>
+      <c r="U10" s="96"/>
+      <c r="V10" s="97"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="106"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -27010,39 +27033,39 @@
     <row r="11" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="91" t="s">
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="100" t="s">
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="102"/>
-      <c r="R11" s="91" t="s">
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="102"/>
+      <c r="Q11" s="103"/>
+      <c r="R11" s="95" t="s">
         <v>87</v>
       </c>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="110"/>
-      <c r="Y11" s="110"/>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="111"/>
+      <c r="S11" s="96"/>
+      <c r="T11" s="96"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="97"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="106"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -27050,37 +27073,37 @@
     <row r="12" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="95" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="91" t="s">
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="105"/>
-      <c r="R12" s="91" t="s">
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="109"/>
-      <c r="X12" s="110"/>
-      <c r="Y12" s="110"/>
-      <c r="Z12" s="110"/>
-      <c r="AA12" s="111"/>
+      <c r="S12" s="96"/>
+      <c r="T12" s="96"/>
+      <c r="U12" s="96"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="104"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="105"/>
+      <c r="Z12" s="105"/>
+      <c r="AA12" s="106"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -27088,39 +27111,39 @@
     <row r="13" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="15"/>
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="95" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="91" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="91" t="s">
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="92"/>
-      <c r="Q13" s="93"/>
-      <c r="R13" s="91" t="s">
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="S13" s="92"/>
-      <c r="T13" s="92"/>
-      <c r="U13" s="92"/>
-      <c r="V13" s="93"/>
-      <c r="W13" s="103"/>
-      <c r="X13" s="104"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="104"/>
-      <c r="AA13" s="105"/>
+      <c r="S13" s="96"/>
+      <c r="T13" s="96"/>
+      <c r="U13" s="96"/>
+      <c r="V13" s="97"/>
+      <c r="W13" s="107"/>
+      <c r="X13" s="108"/>
+      <c r="Y13" s="108"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="109"/>
       <c r="AB13" s="15"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -27192,33 +27215,33 @@
     <row r="16" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -27226,31 +27249,31 @@
     <row r="17" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="59"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="59"/>
+      <c r="U17" s="59"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="59"/>
+      <c r="Y17" s="59"/>
+      <c r="Z17" s="59"/>
+      <c r="AA17" s="59"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -27258,31 +27281,31 @@
     <row r="18" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
+      <c r="R18" s="51"/>
+      <c r="S18" s="51"/>
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51"/>
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="51"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="51"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -27290,31 +27313,31 @@
     <row r="19" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="81"/>
-      <c r="Z19" s="81"/>
-      <c r="AA19" s="81"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -27322,31 +27345,31 @@
     <row r="20" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="83"/>
-      <c r="P20" s="83"/>
-      <c r="Q20" s="83"/>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="83"/>
-      <c r="X20" s="83"/>
-      <c r="Y20" s="83"/>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -27418,6 +27441,28 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="38">
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C7:G8"/>
+    <mergeCell ref="R10:V10"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="M5:Q6"/>
+    <mergeCell ref="R5:V6"/>
+    <mergeCell ref="W5:AA6"/>
+    <mergeCell ref="C20:AA20"/>
+    <mergeCell ref="C16:AA16"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="C18:AA18"/>
+    <mergeCell ref="C19:AA19"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="W8:AA8"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="C17:AA17"/>
     <mergeCell ref="C3:AA3"/>
     <mergeCell ref="C4:AA4"/>
     <mergeCell ref="W9:AA13"/>
@@ -27434,28 +27479,6 @@
     <mergeCell ref="R11:V11"/>
     <mergeCell ref="C5:G6"/>
     <mergeCell ref="H5:L6"/>
-    <mergeCell ref="M5:Q6"/>
-    <mergeCell ref="R5:V6"/>
-    <mergeCell ref="W5:AA6"/>
-    <mergeCell ref="C20:AA20"/>
-    <mergeCell ref="C16:AA16"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="C18:AA18"/>
-    <mergeCell ref="C19:AA19"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C17:AA17"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C7:G8"/>
-    <mergeCell ref="R10:V10"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="R13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="C7 H7 M7 R7 R9:R13 M13 M9:M11 H9:H13 C9:C13">
     <cfRule type="expression" dxfId="58" priority="235">
@@ -27582,8 +27605,8 @@
   </sheetPr>
   <dimension ref="A1:AD22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27673,64 +27696,64 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="78" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -27738,41 +27761,41 @@
     <row r="5" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33"/>
       <c r="B5" s="34"/>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="69" t="s">
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="69" t="s">
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="69" t="s">
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="69" t="s">
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="71"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="73"/>
+      <c r="AA5" s="74"/>
       <c r="AB5" s="35"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="36"/>
@@ -27780,31 +27803,31 @@
     <row r="6" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="34"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="74"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="77"/>
       <c r="AB6" s="35"/>
       <c r="AC6" s="36"/>
       <c r="AD6" s="36"/>
@@ -27812,31 +27835,41 @@
     <row r="7" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="103"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="104"/>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
+      <c r="C7" s="98" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="120" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="121"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="121"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="N7" s="121"/>
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="S7" s="121"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="121"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="X7" s="121"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="121"/>
+      <c r="AA7" s="122"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -27844,31 +27877,33 @@
     <row r="8" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="15"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="93"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="93"/>
+      <c r="C8" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="108"/>
+      <c r="T8" s="108"/>
+      <c r="U8" s="108"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="104"/>
+      <c r="X8" s="105"/>
+      <c r="Y8" s="105"/>
+      <c r="Z8" s="105"/>
+      <c r="AA8" s="106"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -27876,31 +27911,37 @@
     <row r="9" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="15"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="93"/>
+      <c r="C9" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="105"/>
+      <c r="Q9" s="106"/>
+      <c r="R9" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="106"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -27908,31 +27949,33 @@
     <row r="10" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="15"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="103"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="105"/>
-      <c r="W10" s="103"/>
-      <c r="X10" s="104"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="104"/>
-      <c r="AA10" s="105"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="103"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="105"/>
+      <c r="O10" s="105"/>
+      <c r="P10" s="105"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="105"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="104"/>
+      <c r="X10" s="105"/>
+      <c r="Y10" s="105"/>
+      <c r="Z10" s="105"/>
+      <c r="AA10" s="106"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -27940,31 +27983,33 @@
     <row r="11" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="15"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="103"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="105"/>
-      <c r="R11" s="103"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="105"/>
-      <c r="W11" s="103"/>
-      <c r="X11" s="104"/>
-      <c r="Y11" s="104"/>
-      <c r="Z11" s="104"/>
-      <c r="AA11" s="105"/>
+      <c r="C11" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="105"/>
+      <c r="P11" s="105"/>
+      <c r="Q11" s="106"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="105"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="104"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="105"/>
+      <c r="Z11" s="105"/>
+      <c r="AA11" s="106"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -27972,31 +28017,31 @@
     <row r="12" spans="1:30" s="29" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="15"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="92"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="93"/>
-      <c r="R12" s="91"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="92"/>
-      <c r="U12" s="92"/>
-      <c r="V12" s="93"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="92"/>
-      <c r="Y12" s="92"/>
-      <c r="Z12" s="92"/>
-      <c r="AA12" s="93"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="109"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="108"/>
+      <c r="T12" s="108"/>
+      <c r="U12" s="108"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="108"/>
+      <c r="Y12" s="108"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="109"/>
       <c r="AB12" s="15"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -28068,33 +28113,33 @@
     <row r="15" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="57"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -28102,31 +28147,31 @@
     <row r="16" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="59"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="59"/>
+      <c r="AA16" s="59"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -28134,31 +28179,31 @@
     <row r="17" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+      <c r="S17" s="51"/>
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="51"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="51"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -28166,31 +28211,31 @@
     <row r="18" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="81"/>
-      <c r="S18" s="81"/>
-      <c r="T18" s="81"/>
-      <c r="U18" s="81"/>
-      <c r="V18" s="81"/>
-      <c r="W18" s="81"/>
-      <c r="X18" s="81"/>
-      <c r="Y18" s="81"/>
-      <c r="Z18" s="81"/>
-      <c r="AA18" s="81"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
+      <c r="W18" s="53"/>
+      <c r="X18" s="53"/>
+      <c r="Y18" s="53"/>
+      <c r="Z18" s="53"/>
+      <c r="AA18" s="53"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -28198,31 +28243,31 @@
     <row r="19" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="83"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="83"/>
-      <c r="N19" s="83"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="83"/>
-      <c r="Q19" s="83"/>
-      <c r="R19" s="83"/>
-      <c r="S19" s="83"/>
-      <c r="T19" s="83"/>
-      <c r="U19" s="83"/>
-      <c r="V19" s="83"/>
-      <c r="W19" s="83"/>
-      <c r="X19" s="83"/>
-      <c r="Y19" s="83"/>
-      <c r="Z19" s="83"/>
-      <c r="AA19" s="83"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -28293,49 +28338,30 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="42">
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="R12:V12"/>
-    <mergeCell ref="W12:AA12"/>
+  <mergeCells count="23">
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C11:G12"/>
+    <mergeCell ref="C9:G10"/>
+    <mergeCell ref="H7:L8"/>
+    <mergeCell ref="H10:L12"/>
+    <mergeCell ref="C3:AA3"/>
+    <mergeCell ref="C4:AA4"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="M7:Q12"/>
+    <mergeCell ref="R7:V8"/>
+    <mergeCell ref="R9:V12"/>
+    <mergeCell ref="W7:AA12"/>
+    <mergeCell ref="C19:AA19"/>
+    <mergeCell ref="C15:AA15"/>
+    <mergeCell ref="C16:AA16"/>
+    <mergeCell ref="C18:AA18"/>
+    <mergeCell ref="C17:AA17"/>
     <mergeCell ref="H5:L6"/>
     <mergeCell ref="M5:Q6"/>
     <mergeCell ref="R5:V6"/>
     <mergeCell ref="W5:AA6"/>
-    <mergeCell ref="C19:AA19"/>
-    <mergeCell ref="C15:AA15"/>
-    <mergeCell ref="C16:AA16"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="R11:V11"/>
-    <mergeCell ref="W11:AA11"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="C18:AA18"/>
-    <mergeCell ref="C17:AA17"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="C3:AA3"/>
-    <mergeCell ref="C4:AA4"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="W8:AA8"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="W10:AA10"/>
-    <mergeCell ref="R8:V8"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="R10:V10"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Stay on track with your goals – personal, work related, to-do items, &amp; deadlines with this weekly planner._x000a__x000a_Calendar highlights today's date through conditional formatting." sqref="A1" xr:uid="{B1280F90-5521-4452-BFC0-9E7A77206935}"/>
@@ -28445,64 +28471,64 @@
       <c r="AD2" s="5"/>
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="78"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="12"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
@@ -28510,35 +28536,35 @@
     <row r="5" spans="1:30" s="20" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="45"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="82"/>
       <c r="M5" s="13"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="47"/>
-      <c r="X5" s="47"/>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="19"/>
       <c r="AD5" s="19"/>
@@ -28546,31 +28572,31 @@
     <row r="6" spans="1:30" s="23" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="50"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="21"/>
       <c r="N6" s="22"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="53"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="89"/>
+      <c r="T6" s="89"/>
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="89"/>
+      <c r="X6" s="89"/>
+      <c r="Y6" s="89"/>
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="90"/>
       <c r="AB6" s="15"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
@@ -28578,33 +28604,33 @@
     <row r="7" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="56"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="24"/>
       <c r="N7" s="25"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="59"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="65"/>
       <c r="AB7" s="15"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -28612,33 +28638,33 @@
     <row r="8" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="56"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="62"/>
       <c r="M8" s="24"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="59"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="65"/>
       <c r="AB8" s="15"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -28646,33 +28672,33 @@
     <row r="9" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="56"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="62"/>
       <c r="M9" s="24"/>
       <c r="N9" s="25"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="59"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="65"/>
       <c r="AB9" s="15"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -28680,33 +28706,33 @@
     <row r="10" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="56"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="62"/>
       <c r="M10" s="24"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="65"/>
       <c r="AB10" s="15"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -28714,31 +28740,31 @@
     <row r="11" spans="1:30" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="65"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="68"/>
       <c r="M11" s="24"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="68"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="71"/>
       <c r="AB11" s="15"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -28778,41 +28804,41 @@
     <row r="13" spans="1:30" s="37" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33"/>
       <c r="B13" s="34"/>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="69" t="s">
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="69" t="s">
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="69" t="s">
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="69" t="s">
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
       <c r="AB13" s="35"/>
       <c r="AC13" s="36"/>
       <c r="AD13" s="36"/>
@@ -28820,31 +28846,31 @@
     <row r="14" spans="1:30" s="37" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
       <c r="AB14" s="35"/>
       <c r="AC14" s="36"/>
       <c r="AD14" s="36"/>
@@ -28852,41 +28878,41 @@
     <row r="15" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="15"/>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="126" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
-      <c r="M15" s="126" t="s">
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="N15" s="127"/>
-      <c r="O15" s="127"/>
-      <c r="P15" s="127"/>
-      <c r="Q15" s="128"/>
-      <c r="R15" s="60" t="s">
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="75" t="s">
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="77"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="43"/>
       <c r="AB15" s="15"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -28894,37 +28920,37 @@
     <row r="16" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="124"/>
-      <c r="O16" s="124"/>
-      <c r="P16" s="124"/>
-      <c r="Q16" s="125"/>
-      <c r="R16" s="75" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="118"/>
+      <c r="K16" s="118"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="128"/>
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="94" t="s">
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="96"/>
+      <c r="X16" s="115"/>
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="115"/>
+      <c r="AA16" s="116"/>
       <c r="AB16" s="15"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -28932,37 +28958,37 @@
     <row r="17" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="75" t="s">
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="99"/>
-      <c r="R17" s="94" t="s">
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="114" t="s">
         <v>27</v>
       </c>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="124"/>
-      <c r="Y17" s="124"/>
-      <c r="Z17" s="124"/>
-      <c r="AA17" s="125"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="116"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="129"/>
+      <c r="Y17" s="129"/>
+      <c r="Z17" s="129"/>
+      <c r="AA17" s="124"/>
       <c r="AB17" s="15"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -28970,37 +28996,37 @@
     <row r="18" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="15"/>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="75" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="75" t="s">
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="99"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="99"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="119"/>
       <c r="AB18" s="15"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -29008,31 +29034,31 @@
     <row r="19" spans="1:30" s="29" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="90"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="90"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="90"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="85"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="49"/>
       <c r="AB19" s="15"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -29040,41 +29066,41 @@
     <row r="20" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="15"/>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="94" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="94" t="s">
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="75" t="s">
+      <c r="N20" s="115"/>
+      <c r="O20" s="115"/>
+      <c r="P20" s="115"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="94" t="s">
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="96"/>
+      <c r="X20" s="115"/>
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="115"/>
+      <c r="AA20" s="116"/>
       <c r="AB20" s="15"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -29082,35 +29108,35 @@
     <row r="21" spans="1:30" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="15"/>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="129" t="s">
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="118"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="118"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="129"/>
-      <c r="T21" s="129"/>
-      <c r="U21" s="129"/>
-      <c r="V21" s="125"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="99"/>
+      <c r="S21" s="123"/>
+      <c r="T21" s="123"/>
+      <c r="U21" s="123"/>
+      <c r="V21" s="124"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="119"/>
       <c r="AB21" s="15"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -29182,33 +29208,33 @@
     <row r="24" spans="1:30" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
       <c r="AB24" s="15"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -29216,31 +29242,31 @@
     <row r="25" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
       <c r="AB25" s="15"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -29248,31 +29274,31 @@
     <row r="26" spans="1:30" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="79"/>
-      <c r="W26" s="79"/>
-      <c r="X26" s="79"/>
-      <c r="Y26" s="79"/>
-      <c r="Z26" s="79"/>
-      <c r="AA26" s="79"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -29280,31 +29306,31 @@
     <row r="27" spans="1:30" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="81"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="81"/>
-      <c r="R27" s="81"/>
-      <c r="S27" s="81"/>
-      <c r="T27" s="81"/>
-      <c r="U27" s="81"/>
-      <c r="V27" s="81"/>
-      <c r="W27" s="81"/>
-      <c r="X27" s="81"/>
-      <c r="Y27" s="81"/>
-      <c r="Z27" s="81"/>
-      <c r="AA27" s="81"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="53"/>
+      <c r="Q27" s="53"/>
+      <c r="R27" s="53"/>
+      <c r="S27" s="53"/>
+      <c r="T27" s="53"/>
+      <c r="U27" s="53"/>
+      <c r="V27" s="53"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
+      <c r="AA27" s="53"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -29312,31 +29338,31 @@
     <row r="28" spans="1:30" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="83"/>
-      <c r="O28" s="83"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
-      <c r="AA28" s="83"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -29408,37 +29434,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="52">
-    <mergeCell ref="C3:AA3"/>
-    <mergeCell ref="C4:AA4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="O5:AA5"/>
-    <mergeCell ref="C6:L6"/>
-    <mergeCell ref="O6:AA6"/>
-    <mergeCell ref="C7:L7"/>
-    <mergeCell ref="O7:AA7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="O8:AA8"/>
-    <mergeCell ref="C9:L9"/>
-    <mergeCell ref="O9:AA9"/>
-    <mergeCell ref="C10:L10"/>
-    <mergeCell ref="O10:AA10"/>
-    <mergeCell ref="C11:L11"/>
-    <mergeCell ref="O11:AA11"/>
-    <mergeCell ref="C13:G14"/>
-    <mergeCell ref="H13:L14"/>
-    <mergeCell ref="M13:Q14"/>
-    <mergeCell ref="R13:V14"/>
-    <mergeCell ref="W13:AA14"/>
-    <mergeCell ref="C26:AA26"/>
-    <mergeCell ref="C27:AA27"/>
-    <mergeCell ref="C28:AA28"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="C24:AA24"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="W20:AA21"/>
-    <mergeCell ref="H20:L21"/>
+    <mergeCell ref="M18:Q18"/>
+    <mergeCell ref="M20:Q21"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="W16:AA18"/>
+    <mergeCell ref="R17:V18"/>
     <mergeCell ref="R15:V15"/>
     <mergeCell ref="C25:AA25"/>
     <mergeCell ref="C19:G19"/>
@@ -29455,11 +29455,37 @@
     <mergeCell ref="M15:Q17"/>
     <mergeCell ref="W15:AA15"/>
     <mergeCell ref="H15:L16"/>
-    <mergeCell ref="M18:Q18"/>
-    <mergeCell ref="M20:Q21"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="W16:AA18"/>
-    <mergeCell ref="R17:V18"/>
+    <mergeCell ref="C26:AA26"/>
+    <mergeCell ref="C27:AA27"/>
+    <mergeCell ref="C28:AA28"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="C24:AA24"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="W20:AA21"/>
+    <mergeCell ref="H20:L21"/>
+    <mergeCell ref="C10:L10"/>
+    <mergeCell ref="O10:AA10"/>
+    <mergeCell ref="C11:L11"/>
+    <mergeCell ref="O11:AA11"/>
+    <mergeCell ref="C13:G14"/>
+    <mergeCell ref="H13:L14"/>
+    <mergeCell ref="M13:Q14"/>
+    <mergeCell ref="R13:V14"/>
+    <mergeCell ref="W13:AA14"/>
+    <mergeCell ref="C7:L7"/>
+    <mergeCell ref="O7:AA7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="O8:AA8"/>
+    <mergeCell ref="C9:L9"/>
+    <mergeCell ref="O9:AA9"/>
+    <mergeCell ref="C3:AA3"/>
+    <mergeCell ref="C4:AA4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="O5:AA5"/>
+    <mergeCell ref="C6:L6"/>
+    <mergeCell ref="O6:AA6"/>
   </mergeCells>
   <conditionalFormatting sqref="C15:C21 W19:W21 W15:W16 R19:R20 R16:R17 M15 M18:M20 H15 H17:H20">
     <cfRule type="expression" dxfId="34" priority="51">
@@ -29629,6 +29655,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -29940,26 +29986,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29970,6 +29996,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5412D88-CD3F-4013-A8F4-3757FAAA99F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E0CBBCA-45B5-47CA-BE51-AD0EBD1121C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29990,18 +30028,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5412D88-CD3F-4013-A8F4-3757FAAA99F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7A1AD99-D1C5-4F0A-B68D-76D2F78DDEA3}">
   <ds:schemaRefs>
